--- a/project/data/sp500_historic_data.xlsx
+++ b/project/data/sp500_historic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prolap/PycharmProjects/FinancialTrading/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CEFA76-80CD-6E48-8393-EDB099A2052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34492D-ABB3-304D-80F4-6355FEB7C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20180" yWindow="500" windowWidth="18220" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>GM,F,XOM,IBM,GE</t>
+    <t>Top5</t>
   </si>
   <si>
-    <t>Top5</t>
+    <t>ibm,xom</t>
   </si>
 </sst>
 </file>
@@ -84,12 +84,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -423,313 +426,505 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>1971</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A61" si="0">A3+1</f>
+        <v>1972</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f>A2+1</f>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/data/sp500_historic_data.xlsx
+++ b/project/data/sp500_historic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prolap/PycharmProjects/FinancialTrading/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34492D-ABB3-304D-80F4-6355FEB7C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E926A33-EAA8-E442-BCD5-0F4E7E7A5CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20180" yWindow="500" windowWidth="18220" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18660" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Top5</t>
-  </si>
-  <si>
-    <t>ibm,xom</t>
+    <t>xom,wmt,cvx,cop,ge</t>
+  </si>
+  <si>
+    <t>wmt,xom,cvx,ge,bac</t>
+  </si>
+  <si>
+    <t>wmt,xom,cvx,cop,ge</t>
+  </si>
+  <si>
+    <t>xom,wmt,cvx,cop,gm</t>
+  </si>
+  <si>
+    <t>nflx,bby,mu,dal,pbi</t>
+  </si>
+  <si>
+    <t>aapl,msft,amz,googl</t>
+  </si>
+  <si>
+    <t>wmt,xom,cvx,aapl</t>
+  </si>
+  <si>
+    <t>aapl,wmt,xom,jnj</t>
+  </si>
+  <si>
+    <t>aapl,wmt,xom,jnj,googl</t>
+  </si>
+  <si>
+    <t>aapl,msft,jnj,nvda</t>
+  </si>
+  <si>
+    <t>xom,wmt,f,ge</t>
+  </si>
+  <si>
+    <t>wmt,xom,f,ge</t>
+  </si>
+  <si>
+    <t>xom,wmt,cvx,f</t>
+  </si>
+  <si>
+    <t>wmt,xom,cvx,cop</t>
+  </si>
+  <si>
+    <t>xom,f,ge,ibm</t>
+  </si>
+  <si>
+    <t>xom,f,ibm,ge</t>
+  </si>
+  <si>
+    <t>xom,f,ibm,dd</t>
+  </si>
+  <si>
+    <t>xom,f,ibm,t</t>
+  </si>
+  <si>
+    <t>f,xom,ibm,ge</t>
+  </si>
+  <si>
+    <t>f,xom,wmt,t</t>
+  </si>
+  <si>
+    <t>f,xom,wmt,ge</t>
+  </si>
+  <si>
+    <t>f,wmt,xom,ge</t>
+  </si>
+  <si>
+    <t>xom,f,ge</t>
+  </si>
+  <si>
+    <t>xom,f,ibm</t>
+  </si>
+  <si>
+    <t>Top3</t>
   </si>
 </sst>
 </file>
@@ -412,7 +481,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -426,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -434,7 +503,7 @@
         <v>1970</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -442,17 +511,17 @@
         <f>A2+1</f>
         <v>1971</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A61" si="0">A3+1</f>
+        <f t="shared" ref="A4:A54" si="0">A3+1</f>
         <v>1972</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -460,8 +529,8 @@
         <f t="shared" si="0"/>
         <v>1973</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -470,7 +539,7 @@
         <v>1974</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -479,7 +548,7 @@
         <v>1975</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -488,7 +557,7 @@
         <v>1976</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -497,7 +566,7 @@
         <v>1977</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -506,7 +575,7 @@
         <v>1978</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,7 +584,7 @@
         <v>1979</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -524,7 +593,7 @@
         <v>1980</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -533,7 +602,7 @@
         <v>1981</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -542,7 +611,7 @@
         <v>1982</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -551,7 +620,7 @@
         <v>1983</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +629,7 @@
         <v>1984</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -569,7 +638,7 @@
         <v>1985</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -578,7 +647,7 @@
         <v>1986</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -587,7 +656,7 @@
         <v>1987</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -596,7 +665,7 @@
         <v>1988</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -605,7 +674,7 @@
         <v>1989</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -614,7 +683,7 @@
         <v>1990</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +692,7 @@
         <v>1991</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +701,7 @@
         <v>1992</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -641,7 +710,7 @@
         <v>1993</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -650,7 +719,7 @@
         <v>1994</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +728,7 @@
         <v>1995</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -668,7 +737,7 @@
         <v>1996</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -677,7 +746,7 @@
         <v>1997</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +755,7 @@
         <v>1998</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +764,7 @@
         <v>1999</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -704,7 +773,7 @@
         <v>2000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -713,7 +782,7 @@
         <v>2001</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -722,7 +791,7 @@
         <v>2002</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -731,7 +800,7 @@
         <v>2003</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -740,7 +809,7 @@
         <v>2004</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +818,7 @@
         <v>2005</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +827,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +836,7 @@
         <v>2007</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,7 +845,7 @@
         <v>2008</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,7 +854,7 @@
         <v>2009</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +872,7 @@
         <v>2011</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -812,7 +881,7 @@
         <v>2012</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -821,7 +890,7 @@
         <v>2013</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +899,7 @@
         <v>2014</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -839,7 +908,7 @@
         <v>2015</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -848,7 +917,7 @@
         <v>2016</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +926,7 @@
         <v>2017</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -866,7 +935,7 @@
         <v>2018</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -875,7 +944,7 @@
         <v>2019</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -884,7 +953,7 @@
         <v>2020</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -893,7 +962,7 @@
         <v>2021</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -902,7 +971,7 @@
         <v>2022</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">

--- a/project/data/sp500_historic_data.xlsx
+++ b/project/data/sp500_historic_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prolap/PycharmProjects/FinancialTrading/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E926A33-EAA8-E442-BCD5-0F4E7E7A5CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74739D97-3EBA-0343-8CF1-A18DA479477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18660" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/project/data/sp500_historic_data.xlsx
+++ b/project/data/sp500_historic_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prolap/PycharmProjects/FinancialTrading/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74739D97-3EBA-0343-8CF1-A18DA479477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B772D4-891B-AC41-87A1-9F8679D50819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18660" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,41 +32,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>xom,wmt,cvx,cop,ge</t>
-  </si>
-  <si>
     <t>wmt,xom,cvx,ge,bac</t>
   </si>
   <si>
-    <t>wmt,xom,cvx,cop,ge</t>
-  </si>
-  <si>
-    <t>xom,wmt,cvx,cop,gm</t>
-  </si>
-  <si>
-    <t>nflx,bby,mu,dal,pbi</t>
-  </si>
-  <si>
-    <t>aapl,msft,amz,googl</t>
-  </si>
-  <si>
     <t>wmt,xom,cvx,aapl</t>
   </si>
   <si>
     <t>aapl,wmt,xom,jnj</t>
   </si>
   <si>
-    <t>aapl,wmt,xom,jnj,googl</t>
-  </si>
-  <si>
-    <t>aapl,msft,jnj,nvda</t>
-  </si>
-  <si>
     <t>xom,wmt,f,ge</t>
   </si>
   <si>
@@ -76,9 +55,6 @@
     <t>xom,wmt,cvx,f</t>
   </si>
   <si>
-    <t>wmt,xom,cvx,cop</t>
-  </si>
-  <si>
     <t>xom,f,ge,ibm</t>
   </si>
   <si>
@@ -110,6 +86,24 @@
   </si>
   <si>
     <t>Top3</t>
+  </si>
+  <si>
+    <t>aapl,msft,amz</t>
+  </si>
+  <si>
+    <t>aapl,wmt,xom</t>
+  </si>
+  <si>
+    <t>wmt,xom,cvx</t>
+  </si>
+  <si>
+    <t>xom,wmt,cvx,ge</t>
+  </si>
+  <si>
+    <t>wmt,xom,cvx,ge</t>
+  </si>
+  <si>
+    <t>xom,wmt,cvx</t>
   </si>
 </sst>
 </file>
@@ -480,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -503,7 +497,7 @@
         <v>1970</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -512,7 +506,7 @@
         <v>1971</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -521,7 +515,7 @@
         <v>1972</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,7 +524,7 @@
         <v>1973</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +533,7 @@
         <v>1974</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -548,7 +542,7 @@
         <v>1975</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +551,7 @@
         <v>1976</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +560,7 @@
         <v>1977</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +569,7 @@
         <v>1978</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +578,7 @@
         <v>1979</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -593,7 +587,7 @@
         <v>1980</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -602,7 +596,7 @@
         <v>1981</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +605,7 @@
         <v>1982</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +614,7 @@
         <v>1983</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -629,7 +623,7 @@
         <v>1984</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,7 +632,7 @@
         <v>1985</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +641,7 @@
         <v>1986</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,7 +650,7 @@
         <v>1987</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -665,7 +659,7 @@
         <v>1988</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +668,7 @@
         <v>1989</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +677,7 @@
         <v>1990</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -692,7 +686,7 @@
         <v>1991</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,7 +695,7 @@
         <v>1992</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +704,7 @@
         <v>1993</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +713,7 @@
         <v>1994</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -728,7 +722,7 @@
         <v>1995</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +731,7 @@
         <v>1996</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,7 +740,7 @@
         <v>1997</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +749,7 @@
         <v>1998</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,7 +758,7 @@
         <v>1999</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +767,7 @@
         <v>2000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -782,7 +776,7 @@
         <v>2001</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -791,7 +785,7 @@
         <v>2002</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +794,7 @@
         <v>2003</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +803,7 @@
         <v>2004</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,7 +812,7 @@
         <v>2005</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -827,7 +821,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +830,7 @@
         <v>2007</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -845,7 +839,7 @@
         <v>2008</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -854,7 +848,7 @@
         <v>2009</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -863,7 +857,7 @@
         <v>2010</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -872,7 +866,7 @@
         <v>2011</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -881,7 +875,7 @@
         <v>2012</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,7 +884,7 @@
         <v>2013</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +893,7 @@
         <v>2014</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,7 +902,7 @@
         <v>2015</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -917,7 +911,7 @@
         <v>2016</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -926,7 +920,7 @@
         <v>2017</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,7 +929,7 @@
         <v>2018</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -944,7 +938,7 @@
         <v>2019</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -953,7 +947,7 @@
         <v>2020</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -962,7 +956,7 @@
         <v>2021</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +965,7 @@
         <v>2022</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
